--- a/Documenti/Scheduling/GreenLeaf CostBaseline.xlsx
+++ b/Documenti/Scheduling/GreenLeaf CostBaseline.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Green-Leaf\Documenti\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\Green-Leaf\Documenti\Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E095F8-7053-4CBB-9FBA-FC1F558C8137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80A4E7-71BC-41C1-A381-019D041FFEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella_Attività" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Tabella_Attività">Tabella_Attività!$A$1:$G$1</definedName>
+    <definedName name="Tabella_Attività">Tabella_Attività!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>WBS</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Fine</t>
   </si>
   <si>
-    <t>Predecessori</t>
-  </si>
-  <si>
     <t>Costo_previsto</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>7 g</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>System Testing Design</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t>0 g</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>18 g</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>1500</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
   </si>
   <si>
     <t>Testing</t>
-  </si>
-  <si>
-    <t>21;32</t>
   </si>
   <si>
     <t>1.7.1</t>
@@ -856,24 +838,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -892,19 +873,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="7">
         <v>44865</v>
@@ -912,20 +890,19 @@
       <c r="E2" s="7">
         <v>44952</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="7">
         <v>44865</v>
@@ -933,20 +910,19 @@
       <c r="E3" s="7">
         <v>44890</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="7">
         <v>44865</v>
@@ -954,20 +930,19 @@
       <c r="E4" s="7">
         <v>44878</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>44865</v>
@@ -975,20 +950,19 @@
       <c r="E5" s="4">
         <v>44869</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="4">
         <v>44874</v>
@@ -996,20 +970,19 @@
       <c r="E6" s="4">
         <v>44878</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="4">
         <v>44865</v>
@@ -1017,20 +990,19 @@
       <c r="E7" s="4">
         <v>44873</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>44865</v>
@@ -1038,20 +1010,19 @@
       <c r="E8" s="4">
         <v>44873</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
         <v>44881</v>
@@ -1059,22 +1030,19 @@
       <c r="E9" s="7">
         <v>44890</v>
       </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>44881</v>
@@ -1082,20 +1050,19 @@
       <c r="E10" s="4">
         <v>44890</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>44881</v>
@@ -1103,20 +1070,19 @@
       <c r="E11" s="4">
         <v>44890</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4">
         <v>44881</v>
@@ -1124,20 +1090,19 @@
       <c r="E12" s="4">
         <v>44890</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4">
         <v>44881</v>
@@ -1145,20 +1110,19 @@
       <c r="E13" s="4">
         <v>44890</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
         <v>44881</v>
@@ -1166,20 +1130,19 @@
       <c r="E14" s="4">
         <v>44890</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="7">
         <v>44891</v>
@@ -1188,21 +1151,18 @@
         <v>44900</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="4">
         <v>44891</v>
@@ -1210,20 +1170,19 @@
       <c r="E16" s="4">
         <v>44894</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4">
         <v>44891</v>
@@ -1231,20 +1190,19 @@
       <c r="E17" s="4">
         <v>44894</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4">
         <v>44891</v>
@@ -1252,20 +1210,19 @@
       <c r="E18" s="4">
         <v>44894</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
         <v>44895</v>
@@ -1273,20 +1230,19 @@
       <c r="E19" s="4">
         <v>44897</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="4">
         <v>44898</v>
@@ -1294,20 +1250,19 @@
       <c r="E20" s="4">
         <v>44900</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4">
         <v>44898</v>
@@ -1315,20 +1270,19 @@
       <c r="E21" s="4">
         <v>44900</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
         <v>44901</v>
@@ -1337,21 +1291,18 @@
         <v>44904</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>44901</v>
@@ -1359,20 +1310,19 @@
       <c r="E23" s="4">
         <v>44904</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4">
         <v>44901</v>
@@ -1380,20 +1330,19 @@
       <c r="E24" s="4">
         <v>44904</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="D25" s="11">
         <v>44907</v>
@@ -1402,21 +1351,18 @@
         <v>44907</v>
       </c>
       <c r="F25" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D26" s="7">
         <v>44916</v>
@@ -1425,21 +1371,18 @@
         <v>44925</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" s="4">
         <v>44916</v>
@@ -1447,20 +1390,19 @@
       <c r="E27" s="4">
         <v>44916</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4">
         <v>44917</v>
@@ -1468,20 +1410,19 @@
       <c r="E28" s="4">
         <v>44922</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" s="4">
         <v>44923</v>
@@ -1489,20 +1430,19 @@
       <c r="E29" s="4">
         <v>44925</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7">
         <v>44923</v>
@@ -1510,20 +1450,19 @@
       <c r="E30" s="7">
         <v>44925</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4">
         <v>44923</v>
@@ -1531,20 +1470,19 @@
       <c r="E31" s="4">
         <v>44925</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="4">
         <v>44923</v>
@@ -1552,244 +1490,228 @@
       <c r="E32" s="4">
         <v>44925</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="7">
         <v>44928</v>
       </c>
       <c r="E33" s="7">
-        <v>44949</v>
+        <v>44957</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
         <v>44928</v>
       </c>
       <c r="E34" s="4">
-        <v>44949</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44957</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
         <v>44928</v>
       </c>
       <c r="E35" s="4">
-        <v>44949</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44957</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
         <v>44928</v>
       </c>
       <c r="E36" s="4">
-        <v>44949</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+        <v>44957</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="7">
+        <v>44958</v>
+      </c>
+      <c r="E37" s="7">
+        <v>44962</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44958</v>
+      </c>
+      <c r="E38" s="4">
+        <v>44962</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44958</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44962</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="7">
-        <v>44950</v>
-      </c>
-      <c r="E37" s="7">
-        <v>44951</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44958</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44962</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="4">
-        <v>44950</v>
-      </c>
-      <c r="E38" s="4">
-        <v>44951</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="C41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7">
+        <v>44963</v>
+      </c>
+      <c r="E41" s="7">
+        <v>44966</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="4">
-        <v>44950</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44951</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44963</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44966</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="4">
-        <v>44950</v>
-      </c>
-      <c r="E40" s="4">
-        <v>44951</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="7">
-        <v>44952</v>
-      </c>
-      <c r="E41" s="7">
-        <v>44952</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="4">
-        <v>44952</v>
-      </c>
-      <c r="E42" s="4">
-        <v>44952</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4">
-        <v>44952</v>
+        <v>44963</v>
       </c>
       <c r="E43" s="4">
-        <v>44952</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>44966</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
